--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2327400.508334641</v>
+        <v>2325143.486425558</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>60.46179076613092</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.10844059186253</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>203.1609600883624</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>35.905689444694</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>378.8250228382216</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>55.90301252244922</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>127.0044127072328</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>68.14130809906142</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>101.6123617732491</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653454</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>37.9451055833629</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>44.17058434933654</v>
       </c>
     </row>
     <row r="14">
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534541</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>159.6485136801236</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>165.3209102199957</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004736</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>194.0338686928865</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>216.2486892180378</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>161.0498211214289</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>212.6652167733021</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>63.13355668550166</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004736</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>38.12819374426088</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>18.26879610203954</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>190.6045469959059</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>133.2205257453335</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3007,10 +3007,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>30.973943300005</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>49.53517244265083</v>
+        <v>1.624820357902678</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534537</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396202</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935317</v>
+        <v>178.7757248935318</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102222</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298068</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581636</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345257</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706226</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259152</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143252</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164178</v>
+        <v>87.87589738164189</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>188.7127700430364</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>131.2065893217285</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>285.1555829172074</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354224</v>
+        <v>251.0813880354225</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481854</v>
+        <v>285.4667430481855</v>
       </c>
       <c r="X37" t="n">
-        <v>39.79997909560625</v>
+        <v>224.6534001006317</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>217.5283980636893</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396202</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404347</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3755,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124458</v>
+        <v>49.37728379124565</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
         <v>49.37728379124552</v>
@@ -4183,25 +4183,25 @@
         <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>802.0401021781393</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>433.0775852377275</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2636.076575092838</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2305.013687749267</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1952.245032479153</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>1578.779274218073</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1188.639942242261</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,40 +4398,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424004</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240411</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261307</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>264.3261428644631</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>106.5777702969933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1781.603107998156</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C5" t="n">
-        <v>1412.640591057745</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D5" t="n">
-        <v>1054.374892450994</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>668.5866398527501</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>257.6007350631425</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>243.6773310017334</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.202948062278</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X5" t="n">
-        <v>2168.202948062278</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y5" t="n">
-        <v>2168.202948062278</v>
+        <v>1369.628472238665</v>
       </c>
     </row>
     <row r="6">
@@ -4659,10 +4659,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>110.4106712369798</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.712458167646</v>
+        <v>932.2014054355411</v>
       </c>
       <c r="C8" t="n">
-        <v>880.7499412272343</v>
+        <v>563.2388884951295</v>
       </c>
       <c r="D8" t="n">
-        <v>522.4842426204839</v>
+        <v>563.2388884951295</v>
       </c>
       <c r="E8" t="n">
-        <v>136.6959900222396</v>
+        <v>177.4506358968852</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>170.5051351476818</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>156.5817310862727</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>932.2014054355411</v>
       </c>
     </row>
     <row r="9">
@@ -4881,10 +4881,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598713</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X10" t="n">
-        <v>245.45494510253</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5042,16 +5042,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
         <v>487.9678785494859</v>
@@ -5109,7 +5109,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>470.5284434797267</v>
+        <v>393.5907674431233</v>
       </c>
       <c r="C13" t="n">
-        <v>301.5922605518198</v>
+        <v>393.5907674431233</v>
       </c>
       <c r="D13" t="n">
-        <v>301.5922605518198</v>
+        <v>243.4741280307876</v>
       </c>
       <c r="E13" t="n">
-        <v>301.5922605518198</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>301.5922605518198</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>133.8894239265388</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5200,7 +5200,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
         <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431757</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1100.959038351514</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>1100.959038351514</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X13" t="n">
-        <v>872.9694874534966</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="Y13" t="n">
-        <v>652.1769083099664</v>
+        <v>575.239232273363</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5264,10 +5264,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5282,22 +5282,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1296.118160724479</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2274.668463554307</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3254.420735780954</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5358,10 +5358,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.2936040684044</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C16" t="n">
-        <v>561.2936040684044</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>411.1769646560686</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5434,13 +5434,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
         <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1507.836306285022</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1507.836306285022</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1253.151818079135</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W16" t="n">
-        <v>963.7346480421743</v>
+        <v>874.5404723472667</v>
       </c>
       <c r="X16" t="n">
-        <v>963.7346480421743</v>
+        <v>646.5509214492494</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.9420688986442</v>
+        <v>425.7583423057192</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5516,25 +5516,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1002.806306216376</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1453.840519464784</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.2638710736754</v>
+        <v>264.4972173763015</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5674,49 +5674,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.7880996267</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208127</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838522</v>
+        <v>713.279347417849</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858348</v>
+        <v>485.2897965198316</v>
       </c>
       <c r="Y19" t="n">
-        <v>263.2638710736754</v>
+        <v>264.4972173763015</v>
       </c>
     </row>
     <row r="20">
@@ -5726,55 +5726,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176197</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366029</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195858</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2762.02852125464</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3641.993171584095</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353929</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,7 +5859,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447819</v>
@@ -5868,7 +5868,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>510.7061876676659</v>
+        <v>245.6776738607303</v>
       </c>
       <c r="C22" t="n">
-        <v>510.7061876676659</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D22" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5914,7 +5914,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,7 +5923,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1793.666879113361</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1571.900263682887</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1282.797396808531</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1028.112908602644</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W22" t="n">
-        <v>738.6957385656832</v>
+        <v>694.4598039022777</v>
       </c>
       <c r="X22" t="n">
-        <v>510.7061876676659</v>
+        <v>466.4702530042604</v>
       </c>
       <c r="Y22" t="n">
-        <v>510.7061876676659</v>
+        <v>245.6776738607303</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5999,34 +5999,34 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E24" t="n">
         <v>487.9678785494859</v>
@@ -6057,7 +6057,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>307.2453974100822</v>
+        <v>582.3166934139183</v>
       </c>
       <c r="C25" t="n">
-        <v>307.2453974100822</v>
+        <v>413.3805104860113</v>
       </c>
       <c r="D25" t="n">
-        <v>243.4741280307875</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6145,13 +6145,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6166,31 +6166,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>841.6225995718536</v>
       </c>
       <c r="X25" t="n">
-        <v>709.6864413838521</v>
+        <v>803.1092725574484</v>
       </c>
       <c r="Y25" t="n">
-        <v>488.8938622403219</v>
+        <v>582.3166934139183</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364128</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193956</v>
+        <v>2584.171204687568</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6336,7 +6336,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>260.9043113423044</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C28" t="n">
-        <v>260.9043113423044</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D28" t="n">
-        <v>260.9043113423044</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6388,7 +6388,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6397,7 +6397,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838518</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858345</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423044</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,19 +6461,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6561,7 +6561,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6570,16 +6570,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>399.0634049978504</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="C31" t="n">
-        <v>230.1272220699435</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D31" t="n">
-        <v>230.1272220699435</v>
+        <v>411.1769646560686</v>
       </c>
       <c r="E31" t="n">
-        <v>230.1272220699435</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>230.1272220699435</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6625,10 +6625,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
@@ -6640,10 +6640,10 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
         <v>1674.827124689058</v>
@@ -6652,19 +6652,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>909.273154178341</v>
+        <v>1132.670830970081</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413805</v>
+        <v>1132.670830970081</v>
       </c>
       <c r="X31" t="n">
-        <v>619.8559841413805</v>
+        <v>1132.670830970081</v>
       </c>
       <c r="Y31" t="n">
-        <v>399.0634049978504</v>
+        <v>911.8782518265509</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6701,25 +6701,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3641.993171584094</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
@@ -6780,7 +6780,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320243</v>
@@ -6795,22 +6795,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>704.2840989361212</v>
+        <v>679.6423705955727</v>
       </c>
       <c r="C34" t="n">
-        <v>704.2840989361212</v>
+        <v>510.7061876676659</v>
       </c>
       <c r="D34" t="n">
-        <v>704.2840989361212</v>
+        <v>360.5895482553302</v>
       </c>
       <c r="E34" t="n">
-        <v>556.371005353728</v>
+        <v>360.5895482553302</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>360.5895482553302</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,10 +6859,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6877,10 +6877,10 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
         <v>1674.827124689058</v>
@@ -6892,16 +6892,16 @@
         <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>1163.957642384227</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="W34" t="n">
-        <v>1163.957642384228</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="X34" t="n">
-        <v>935.9680914862103</v>
+        <v>681.283603280323</v>
       </c>
       <c r="Y34" t="n">
-        <v>885.9325637663609</v>
+        <v>679.6423705955727</v>
       </c>
     </row>
     <row r="35">
@@ -6926,34 +6926,34 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277727</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>785.665188117619</v>
+        <v>811.5584875547761</v>
       </c>
       <c r="L35" t="n">
-        <v>1650.184003770974</v>
+        <v>1676.077303208131</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.715908442898</v>
+        <v>2209.609207880055</v>
       </c>
       <c r="N35" t="n">
-        <v>3163.468180669544</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O35" t="n">
-        <v>3666.440651548881</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973176</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161906</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549394</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494839</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763689</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426848</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902951</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.10246054955</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142066</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635546</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313401</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447817</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216074</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487872</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517386</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1113.194126721817</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>945.3248683276535</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>796.2751534490607</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>649.4289844004106</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>503.6059614362433</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>336.9700493447053</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>191.8197870963061</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308515</v>
+        <v>141.7293596308514</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152493</v>
+        <v>346.7622353152491</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992671</v>
+        <v>664.3677264992666</v>
       </c>
       <c r="M37" t="n">
         <v>1009.570464834337</v>
@@ -7108,37 +7108,37 @@
         <v>1352.024534275723</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931659</v>
+        <v>1652.399825931658</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100839</v>
+        <v>1886.053019100838</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988876</v>
+        <v>1964.709007988875</v>
       </c>
       <c r="R37" t="n">
-        <v>1875.945475280147</v>
+        <v>1875.945475280146</v>
       </c>
       <c r="S37" t="n">
-        <v>1875.945475280147</v>
+        <v>1685.326515640715</v>
       </c>
       <c r="T37" t="n">
-        <v>1875.945475280147</v>
+        <v>1552.794607234928</v>
       </c>
       <c r="U37" t="n">
-        <v>1875.945475280147</v>
+        <v>1264.758664894315</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.327911608003</v>
+        <v>1011.141101222171</v>
       </c>
       <c r="W37" t="n">
-        <v>1333.977666104785</v>
+        <v>722.7908557189529</v>
       </c>
       <c r="X37" t="n">
-        <v>1293.775667018314</v>
+        <v>495.8682293546785</v>
       </c>
       <c r="Y37" t="n">
-        <v>1293.775667018314</v>
+        <v>276.1425747448912</v>
       </c>
     </row>
     <row r="38">
@@ -7151,73 +7151,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277727</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
         <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.60335981148</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542187</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7254,13 +7254,13 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320255</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
         <v>1715.000032008795</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215041</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416707</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774085</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430886</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932516</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160448</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819756</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7333,13 +7333,13 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499219</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
-        <v>1191.409234901877</v>
+        <v>1191.409234901878</v>
       </c>
       <c r="N40" t="n">
         <v>1579.322996860149</v>
@@ -7348,34 +7348,34 @@
         <v>1925.157981032969</v>
       </c>
       <c r="P40" t="n">
-        <v>2204.270866719034</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123955</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604456</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
         <v>1725.799256195773</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849071</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899127</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036705</v>
+        <v>922.7139997036717</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7397,31 +7397,31 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277727</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.60335981148</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,16 +7488,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
         <v>1715.000032008795</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215049</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416712</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774087</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430889</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932518</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160439</v>
+        <v>244.2046325160448</v>
       </c>
       <c r="H43" t="n">
-        <v>145.437078681975</v>
+        <v>145.4370786819759</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499222</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7591,28 +7591,28 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604456</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036717</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>741.1020862043861</v>
       </c>
       <c r="L44" t="n">
-        <v>1898.858917622687</v>
+        <v>1605.620901857741</v>
       </c>
       <c r="M44" t="n">
-        <v>2432.390822294612</v>
+        <v>2584.171204687569</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353394</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188666</v>
@@ -7676,22 +7676,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390103</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320232</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7758,7 +7758,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215055</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416719</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7804,34 +7804,34 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490198</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499227</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.270866719036</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.421860962789</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,10 +8699,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>288.0478149561031</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8930,16 +8930,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>229.1155640189938</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>183.0848540075445</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>219.3344627260164</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>285.0508825989992</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>226.0494095077333</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9647,16 +9647,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>358.284991392105</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>404.5002992370399</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>7.630896635344584</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10349,28 +10349,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>226.0494095077362</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>26.15484791632008</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10601,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.6385654278982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10829,13 +10829,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>410.4190035206675</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476859</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>251.1867816683983</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476859</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>124.0833809162827</v>
       </c>
       <c r="L44" t="n">
-        <v>344.7025836476824</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>106.8099093309579</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>174.4140690027583</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>20.18346650181365</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>54.22803905617356</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>92.48912964370447</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.335964134056979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>28.719204210013</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>73.85778156328894</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>85.4819163327107</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>187.5814616447763</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>128.1651665445296</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>27.98010635618891</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>32.80528251369469</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24895,10 +24895,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>221.163700023823</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>169.049480909444</v>
+        <v>216.9598329941921</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>147.5592177298069</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.9695529706228</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>143.6987596259153</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>95.29616512143265</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430363</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877636</v>
+        <v>87.28610466603529</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172073</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>184.8534210050253</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>9.805489753489383e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>-1.27897692436818e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>831373.2415078257</v>
+        <v>831373.2415078256</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>831373.2415078257</v>
+        <v>831373.2415078256</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>831373.2415078256</v>
+        <v>831373.2415078257</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>831992.7179963891</v>
+        <v>831992.7179963893</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
+        <v>575768.5909861258</v>
+      </c>
+      <c r="F2" t="n">
+        <v>575768.5909861258</v>
+      </c>
+      <c r="G2" t="n">
+        <v>575768.5909861255</v>
+      </c>
+      <c r="H2" t="n">
         <v>575768.5909861256</v>
       </c>
-      <c r="F2" t="n">
-        <v>575768.5909861256</v>
-      </c>
-      <c r="G2" t="n">
-        <v>575768.5909861259</v>
-      </c>
-      <c r="H2" t="n">
-        <v>575768.5909861255</v>
-      </c>
       <c r="I2" t="n">
-        <v>575768.5909861258</v>
+        <v>575768.5909861253</v>
       </c>
       <c r="J2" t="n">
         <v>575768.5909861255</v>
       </c>
       <c r="K2" t="n">
+        <v>575768.590986126</v>
+      </c>
+      <c r="L2" t="n">
         <v>575768.5909861258</v>
-      </c>
-      <c r="L2" t="n">
-        <v>575768.5909861259</v>
       </c>
       <c r="M2" t="n">
         <v>576206.7572829144</v>
       </c>
       <c r="N2" t="n">
+        <v>595255.2831516051</v>
+      </c>
+      <c r="O2" t="n">
+        <v>595255.2831516053</v>
+      </c>
+      <c r="P2" t="n">
         <v>595255.2831516052</v>
-      </c>
-      <c r="O2" t="n">
-        <v>595255.2831516052</v>
-      </c>
-      <c r="P2" t="n">
-        <v>595255.2831516053</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696689</v>
+        <v>130487.319069669</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414955</v>
+        <v>36735.1050641497</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>6.053378456272184e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="G4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="F4" t="n">
-        <v>18148.49231918993</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18148.49231918993</v>
-      </c>
       <c r="H4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="I4" t="n">
-        <v>18148.49231918993</v>
-      </c>
       <c r="J4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811461</v>
+        <v>18496.05294811456</v>
       </c>
       <c r="N4" t="n">
         <v>33605.65329740901</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.653297409</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740901</v>
       </c>
     </row>
     <row r="5">
@@ -26479,19 +26479,19 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-260920.3609834769</v>
+        <v>-260920.3609834773</v>
       </c>
       <c r="C6" t="n">
         <v>329047.5182310675</v>
       </c>
       <c r="D6" t="n">
-        <v>329047.5182310672</v>
+        <v>329047.5182310675</v>
       </c>
       <c r="E6" t="n">
-        <v>-266140.8335801848</v>
+        <v>-266208.0290704104</v>
       </c>
       <c r="F6" t="n">
-        <v>461236.580413222</v>
+        <v>461169.3849229964</v>
       </c>
       <c r="G6" t="n">
-        <v>461236.5804132223</v>
+        <v>461169.3849229962</v>
       </c>
       <c r="H6" t="n">
-        <v>461236.5804132219</v>
+        <v>461169.3849229962</v>
       </c>
       <c r="I6" t="n">
-        <v>461236.5804132221</v>
+        <v>461169.3849229959</v>
       </c>
       <c r="J6" t="n">
-        <v>284813.3612206291</v>
+        <v>284746.1657304032</v>
       </c>
       <c r="K6" t="n">
-        <v>461236.5804132221</v>
+        <v>461169.3849229966</v>
       </c>
       <c r="L6" t="n">
-        <v>461236.5804132223</v>
+        <v>461169.3849229963</v>
       </c>
       <c r="M6" t="n">
-        <v>330751.0686855762</v>
+        <v>330685.3841136152</v>
       </c>
       <c r="N6" t="n">
-        <v>424581.8537759444</v>
+        <v>424581.8537759442</v>
       </c>
       <c r="O6" t="n">
         <v>461316.9588400941</v>
       </c>
       <c r="P6" t="n">
-        <v>461316.9588400936</v>
+        <v>461316.9588400941</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26753,7 +26753,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018694</v>
+        <v>45.91888133018713</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26996,10 +26996,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>190.7623767421584</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>82.85718120047571</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,10 +27594,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>83.36203824822863</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>288.0170833196631</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>7.412915817831959</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>92.71246049576314</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>159.5185856293582</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>338.73473764265</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>222.310410991108</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,16 +27901,16 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>80.49006577330462</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853701</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>28.98780970275089</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-2.801594637770918e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405593</v>
+        <v>1.056255288405458</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,37 +33725,37 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33764,7 +33764,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33813,16 +33813,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
         <v>300.7247737883114</v>
@@ -33831,19 +33831,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780294</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,37 +33962,37 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.956561913881</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34001,7 +34001,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34050,16 +34050,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
         <v>300.7247737883114</v>
@@ -34068,19 +34068,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780294</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.647816683794</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026424</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35410,7 +35410,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
@@ -35419,10 +35419,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>840.3496503690146</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35650,16 +35650,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>684.7056784113259</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>691.1378548957637</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35668,7 +35668,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35884,7 +35884,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>556.5257492814169</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
@@ -35893,7 +35893,7 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>837.3527180119107</v>
       </c>
       <c r="O17" t="n">
         <v>508.0530008882191</v>
@@ -35905,7 +35905,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>624.8113957271053</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36282,10 +36282,10 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
         <v>344.8569461675401</v>
@@ -36294,7 +36294,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
         <v>78.39423853789366</v>
@@ -36367,16 +36367,16 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>866.3379922803241</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
@@ -36534,7 +36534,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>943.4214150672667</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
@@ -36616,7 +36616,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>559.9327320482561</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
@@ -37069,28 +37069,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>624.8113957271081</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407862</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554003</v>
+        <v>363.3461344717205</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427823</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248953</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>534.4005516472697</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.109295463624</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152071</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147179</v>
+        <v>46.63467190147165</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327251</v>
+        <v>207.103914832725</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586037</v>
+        <v>320.8136274586035</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818893</v>
+        <v>348.6896346818892</v>
       </c>
       <c r="N37" t="n">
         <v>345.9132014559455</v>
@@ -37479,10 +37479,10 @@
         <v>303.4093855110452</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335159</v>
+        <v>236.0133264335158</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629919</v>
+        <v>79.45049382629908</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407862</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.336699126565</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302264</v>
+        <v>949.340119350894</v>
       </c>
       <c r="N38" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359047</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.109295463624</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152071</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340069</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316587</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887905</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407862</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.336699126565</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923318</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.301835412911</v>
+        <v>803.4886170813098</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359047</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.109295463624</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152071</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004607</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316587</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887905</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>461.2746674716831</v>
       </c>
       <c r="L44" t="n">
-        <v>800.2926980400148</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882195</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597567</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
